--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V222"/>
+  <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23730,6 +23730,106 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>078</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>222</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>La Institución Educativa El Limonar, de carácter oficial, ofrece los niveles de Preescolar, Básica y Media Técnica y académica, Programa de Educación para jóvenes y adultos, e Inclusión de niños (as) y jóvenes con discapacidad cognitiva leve y discapacidad física y con énfasis en inglés; promoviendo la formación integral, mediante la vivencia de valores que contribuyan a mejorar la calidad de vida de todos los integrantes de la comunidad educativa.</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>En el año 2022 La Institución Educativa El Limonar será reconocida por la calidad de sus procesos académicos y formativos, en los niveles de Preescolar, básica primaria, inclusión de estudiantes con discapacidad cognitiva leve y discapacidad física, el programa de aceleración del aprendizaje, el programa ABC, básica secundaria, media técnica y académica y la articulación SENA; que promueva el desarrollo integral del educando a través de competencias y actitudes fundamentadas  en los  valores universales, preparándolos para su vinculación con el sector productivo y/o el ingreso a estudios superiores y la vida productiva.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V223"/>
+  <dimension ref="A1:V224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23830,6 +23830,110 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>223</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>El PEI, de la I.E se encuentra en construcción.</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rancho Grande; facilita a los educandos su formación integral, promoviendo en ellos, el espíritu crítico, creativo, reflexivo y de liderazgo, que les permitan cumplir con las exigencias de su contexto, en la perspectiva de ser competentes, solidarios, tolerantes, respetuosos, participativos y que autogestionen en la solución de problemas propios de su entorno con proyección ética y de justicia social que conlleva a una convivencia armónica y democrática. Promueve el desarrollo de habilidades comunicativas y la inclusión de niños, niñas, jóvenes y adultos en situación de vulnerabilidad y extra-edad, garantizando la construcción de proyectos de vida sólidos que faciliten el mejoramiento en la calidad de vida.</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Para el año 2016 la Institución Educativa Rancho Grande visiona la formación integral de sus educandos, con una alta formación en conocimientos, competencias, valores e identidad cultural, que favorezcan el mejoramiento de la calidad de vida, su participación en la solución de los problemas de su medio y su continuación en la Educación Superior. con una cobertura plena para nuestros niños, niñas y jóvenes e índices bajos de deserción y ausentismo escolar. Nuestra institución para el año 2.011 habrá erradicado la extra-edad de los niños y jóvenes de la institución y de la comunidad en un 100%.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:V231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23934,6 +23934,736 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>224</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somos una institución educativa con un enfoque integral humanista diversificado que ofrece los niveles de educación preescolar, básica y media (Técnica y Académica) que respeta las diferencias individuales y fomenta el desarrollo de las competencias básicas, laborales y ciudadanas en concordancia con las exigencias del mundo globalizado. </t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Para el año 2025 continuaremos siendo una institución incluyente, reconocida por su destacado trabajo en la formación integral, con pensamiento crítico, emprendedora que le permitirá dar soluciones acertadas a las necesidades y retos que exige la sociedad actual y su momento histórico de los procesos de paz, teniendo en cuenta las apuestas productivas de la región y su proyección a nivel nacional e internacional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>225</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Institución Educativa Técnica Francisco de Paula Santander de Soledad, implementa desde la infancia modelos flexibles de aprendizaje con intencionalidad didáctica y articulación de recursos pedagógicos, que garantiza una formación académica, técnica y laboral a niños, niñas y jóvenes, comprometida con el desarrollo sociocultural y económico del país, logrando un salto en la inclusión social y en la competitividad del país a través de la  apropiación y el uso adecuado de las TIC,  capacitándolos para ingresar a la educación superior, propiciando el desarrollo integral de la persona humana con sentido de pertenencia, autonomía, tolerancia, respeto, responsabilidad, solidaridad, creatividad; formándolos para la vida laboral e intelectual y contribuyendo significativamente con el mejoramiento de su calidad de vida y el de su entorno.
+</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el año 2018 nuestra Institución será reconocida por su solidez en la formación integral de personas para el desempeño en actividades relacionadas con el desarrollo humano, científico-laboral, técnico, tecnológico,  cultural y haciendo uso eficiente y productivo de las TIC, para mejorar la inclusión social y la competitividad, proyectándose como emprendedores, capaces de asumir y afrontar los retos que ofrece la sociedad en la cual se desenvuelven, fundamentados por principios y valores que les permita interactuar en ella, contribuyendo significativamente al mejoramiento de su calidad de vida. Para  ello, consolidará convenios de articulación e integración con otras instituciones, e implementará diferente modelos flexibles, entre ellos el CIDEP en pre-escolar.
+Egresarán  jóvenes competentes para el ingreso a la educación superior y el sector productivo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>226</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>En el plan de estudio se visualizan actividades que permiten el desarrollo del pensamiento computacional pero no podemos decir que se le da mayor relevancia pero tampoco que no se le da.                                                                                                                                               
+En el plan de estudio no se visualizan las actividades pedagógicas para estudiantes con trastornos de aprendizaje y/o discapacidad, sin embargo es de mi conocimiento que la SEM realiza acompañamiento para los planes de ajuste razonable(PIAR).                                           Con este apoyo (PIAR) diríamos que si tenemos personal experto en cuanto al plan de estudio y recursos educativos de estos estudiantes puesto que se recibe ese apoyo.</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Normal Superior de Sincelejo es un ente oficial, dedicado al proceso de formación de maestros de reconocida idoneidad ética, política, pedagógica e investigativa, calificados para asumir la orientación de los procesos de formación que se desarrollan en establecimientos educativos del nivel preescolar y el ciclo de Básica Primaria.
+Desde su quehacer, la institución promueve la lectura crítica-reflexiva de la realidad contextual, para el fortalecimiento de una conciencia ética en favor del mejoramiento personal y social. Para ello fomenta el desarrollo de operaciones mentales superiores, con apoyo en la investigación educativa en los campos pedagógico y administrativo.</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>En el periodo 2020 a 2024, la Institución Educativa Normal Superior de Sincelejo será posicionada como formadora de profesionales de la educación de alta calidad ética, pedagógica y científica, productora de resultados y lineamientos de investigación pedagógica para la actuación de los maestros de educación preescolar y básica primaria del municipio de Sincelejo, el departamento de Sucre y la región Caribe, con incidencia en otros niveles y conceptos, frente a las tendencias nacionales y universales imperiales, fiel al propósito de mejorar la educación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>227</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>En el plan de estudio, se contempla el estudio del pensamiento computacional no dándole mayor relevancia pero si de manera equilibrada con el núcleo del conocimiento. 
+El plan de estudios del área no hace explícita la pedagogía a utilizar y las adaptaciones para estudiantes con trastornos del aprendizaje y/o con discapacidad pero si se trabaja en apoyo  con los planes de ajuste razonable(PIAR), es decir no es explicita pero si trabaja de acuerdo a la necesidad de cada estudiante.</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>Ofrecer formación integral a niños, niñas, adolescentes, jóvenes y adultos, para que alcancen niveles de excelencia a través del desarrollo de competencias, con pensamiento crítico e incluyente, desde la investigación y el bilingüismo que consoliden valores éticos, morales y espirituales, permitiéndoles interactuar socialmente en el mundo globalizado.</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Para el año 2022 la institución educativa Policarpa Salavarrieta será reconocida a nivel local, regional y nacional por su alta calidad académica, formando ciudadanos activos, competitivos e integrados a la sociedad, capaces de responder a las exigencias del mundo actual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>228</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>El plan de estudios del área se encuentra de una manera general  las actividades , pero se atiende al estudiante con trastornos del aprendizaje y/o con discapacidad de acuerdo a las necesidades especificas argumentadas en un plan ajustable (PIAR)</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Nueva Esperanza tiene como misión promover la formación integral de sus alumnos mediante el ejercicio de los derechos humanos y el desarrollo de las competencias básicas y ciudadanas.</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Para el año 2021 la Institución Educativa Nueva Esperanza se habrá convertido en un prestigioso centro de desarrollo humano, de reconocimiento regional; donde los estudiantes accederán a la jornada única, garantizando mayor tiempo en el aula y mejores espacios de aprendizaje.</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>229</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>En el plan de estudio la pedagogía a utilizar esta general pero si se hace atención a los estudiantes con necesidades especiales con los planes de ajuste razonable. (PIAR).
+Algunas preguntas más que darles una respuesta de NO seria en realidad N/A para tener en cuenta sobre todo en la ultima pregunta.</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Madre Amalia ofrece los niveles de educación preescolar, básica y media, formando personas líderes, intelectuales con pensamiento crítico, valores espirituales, ético-morales, culturales y democráticos para la convivencia social; Cuenta con un recurso humano idóneo comprometido con el desarrollo de procesos que involucran el conocimiento, las habilidades del pensamiento y la competencia, como proceso formativo académico.</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el año 2022 la Institución Educativa Madre Amalia contará con una adecuada planta física, una mejor dotación de recursos didácticos y tecnológicos, un recurso humano cualificado y con alto sentido de pertenencia.
+Estará más abierta al servicio de la comunidad, promoviendo en los estudiantes la formación de hombres y mujeres competentes con calidad humana, espíritu creativo e investigativo, que le permita incorporarse en el mercado laboral o continuar su formación técnica o profesional. </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>230</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>La IE no hace diferencia entre niños y niñas.                                                                                 
+La pedagogía en el plan de estudio es general pero si atienden las necesidades de estudiantes con trastornos de aprendizaje(PIAR) (esta clarificación la hago como conclusión a la entrevista hecha a los docentes)                                                                
+Algunas preguntas seria más una respuesta de N/A antes que un NO(aplica para todas las sedes)</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Es la formulación de los propósitos de la institución, que la distinguen de otras instituciones similares. La misión indica la manera como la institución pretende lograr y consolidar los objetivos de su existencia. La misión se fundamenta en la identidad de la institución, en ella se refleja su quehacer específico para un período histórico determinado, asumido a partir de la confrontación con las necesidades actuales y futuras que reconoce en el medio social del cual forma parte. </t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>Es un conjunto de ideas generales, que proveen el marco de referencia de lo que una institución es y quiere ser en el futuro. La visión señala el rumbo general, marca la dirección, es el lazo que une en la institución el momento presente con el futuro. Sirve de guía para la formulación de estrategias; por eso, debe ser conocida y asimilada por todo los estamentos de la institución, para comprometer la gestión en su alcance y operacionalización.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/PlanCFK.xlsx
+++ b/data/descargables/PlanCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V231"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24664,6 +24664,216 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>231</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>En el plan de estudio la pedagogía es general pero si se hace  adaptaciones para estudiantes con trastornos del aprendizaje y/o con discapacidad( PIAR).                                 Algunas preguntas la respuesta ideal sería un N/A en vez de  NO  ( esta opción de respuesta era necesaria).                                                                                                                                   
+En la IE no se hace distinción entre niños y niñas el trato a todos es por igual.</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Buenavista orienta su educación hacia la formación de estudiantes íntegros en principios y valores propios de la cultura, donde prevalezcan el trabajo colaborativo para el fortalecimiento de la identidad y el desarrollo sostenible del pueblo Zenú.</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural Buenavista formará personas con principios de convivencia y paz, cosmovisión ancestral del territorio Zenú, con actitud investigativa, reflexiva, crítica, analítica y competitiva para la conservación, el fortalecimiento de la cultura, como aspecto principal en el desenvolvimiento social, frente a los retos científicos, tecnológicos y ambientales del mundo actual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Encuesta Planes de estudio</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>232</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>El colegio no hace distinción entre niños y niñas (en la ultima pregunta seria  en realidad N/A).                                                                                                                                                    
+ En el plan de estudio la pedagogía a utilizar está generalizada pero en la IE se hacen las adaptaciones necesarias con los planes de ajuste razonable.(Esta respuesta la doy porque se que en la IE se trabaja con PIAR más no tengo claridad en si del manejo que se le da en el área).</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural la Peñata, entidad de carácter oficial, orienta la formación académica de estudiantes a través de su Modelo Pedagógico que propende por el manejo de herramientas tecnológicas, científicas, pedagógicas, que posibilitan el desarrollo integral de los estudiantes, enfatizando en principios y valores como el respeto, la tolerancia, la responsabilidad que garanticen una convivencia pacífica, la diversidad étnica de nuestra sociedad. (propuesta)</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>La Institución Educativa Rural la Peñata se proyecta como la mejor Institución Educativa Rural del municipio de Sincelejo, formando ciudadanos con sentido Ético, humanístico y social, en coherencia con las tendencias ecológicas, tecnológicas y culturales para contribuir con el mejoramiento de la calidad educativa.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
